--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_21-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_21-49.xlsx
@@ -176,6 +176,12 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DOLLAR FOAM CLEANSER</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
     <t>3:2</t>
   </si>
   <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -312,9 +321,6 @@
   </si>
   <si>
     <t>SORAL 30 MG 30CAPS</t>
-  </si>
-  <si>
-    <t>0:3</t>
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
@@ -1830,17 +1836,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1848,7 +1854,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1874,7 +1880,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1900,7 +1906,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1926,7 +1932,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1952,7 +1958,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1960,7 +1966,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1978,7 +1984,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2004,7 +2010,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2030,7 +2036,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2056,7 +2062,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2082,7 +2088,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2090,7 +2096,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2108,7 +2114,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2116,7 +2122,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2134,7 +2140,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2142,7 +2148,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2160,7 +2166,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2186,7 +2192,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2212,7 +2218,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2238,7 +2244,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2264,7 +2270,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2290,7 +2296,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2298,7 +2304,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2316,7 +2322,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2342,7 +2348,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2368,7 +2374,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2376,7 +2382,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2394,7 +2400,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2402,7 +2408,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2420,7 +2426,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2446,7 +2452,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2472,7 +2478,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2498,7 +2504,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2524,7 +2530,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2550,7 +2556,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2576,7 +2582,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2584,7 +2590,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2602,7 +2608,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2610,17 +2616,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>23.039999999999999</v>
+        <v>38</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2628,7 +2634,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2636,17 +2642,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2654,7 +2660,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2662,13 +2668,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2680,7 +2686,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2688,17 +2694,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2706,7 +2712,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2714,13 +2720,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2732,7 +2738,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2746,7 +2752,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2758,7 +2764,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2766,13 +2772,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2784,7 +2790,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2798,11 +2804,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2810,7 +2816,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2818,17 +2824,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2836,7 +2842,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2844,17 +2850,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2862,7 +2868,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2870,13 +2876,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2888,7 +2894,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2896,13 +2902,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2914,7 +2920,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2922,17 +2928,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2948,17 +2954,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2966,7 +2972,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2974,17 +2980,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3000,17 +3006,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3018,7 +3024,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3032,7 +3038,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3044,7 +3050,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3058,7 +3064,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3070,7 +3076,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3084,7 +3090,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3096,7 +3102,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3104,13 +3110,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3122,7 +3128,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3130,13 +3136,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3148,7 +3154,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3156,13 +3162,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>-25</v>
+        <v>96</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3188,7 +3194,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3208,13 +3214,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3226,7 +3232,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3234,17 +3240,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3266,7 +3272,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3286,17 +3292,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3312,17 +3318,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3338,17 +3344,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3356,7 +3362,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3364,17 +3370,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3396,11 +3402,11 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3416,17 +3422,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3434,7 +3440,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3442,13 +3448,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3460,7 +3466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3468,13 +3474,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3486,7 +3492,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3494,13 +3500,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3512,7 +3518,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3520,51 +3526,77 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="K101" s="10">
-        <v>6248.54</v>
-      </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="11">
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
         <v>141</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c t="s" r="F102" s="12">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
         <v>142</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-      <c t="s" r="I102" s="14">
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>35</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>6302.54</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
         <v>143</v>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>144</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>145</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3863,10 +3895,13 @@
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
